--- a/tests/integration/data/Renderer001-EndRow/template.xlsx
+++ b/tests/integration/data/Renderer001-EndRow/template.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer\tests\integration\data\Renderer001-EndRow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer001-EndRow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E6378E-BBE6-470D-8F18-BE138E04A685}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02087043-B103-4CA1-B0E6-DBAED7FD358C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="1" xr2:uid="{DA12C0B8-6741-444F-B263-55021EDA3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="without EndRow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>#! FINISHED</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>C1 &amp; B2 should not been evaluated</t>
+  </si>
+  <si>
+    <t>#! FINISH</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>&lt;-- this `#! FINISH` should be in output, because the line above hasn't `END_ROW` that couse finish rendering on out of column limit reached (16384 columns)</t>
   </si>
 </sst>
 </file>
@@ -426,17 +436,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE5C9A7-554C-4824-A0F2-3EAE2478AA4A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -445,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,12 +463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -467,4 +477,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C094ECB9-34B5-45DC-9FF9-685DE934E17E}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>